--- a/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 7,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,0; 9,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,73; 10,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,91; 11,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 8,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,31; 11,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,44; 4,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>1,83; 7,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0,35; 4,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,38; 8,78</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,83; 2,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,18; 3,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,85; 4,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,81; 5,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,44; 4,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,9; 6,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,47; 5,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,79; 5,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,31; 2,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,23; 4,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,53; 4,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,64; 5,0</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,49; 3,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,55; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,89; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,95; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,53; 5,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,41; 7,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,54; 7,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,73; 5,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,31; 3,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,68; 5,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,48; 5,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,56; 4,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,27; 3,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,63; 5,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,07; 4,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,02; 6,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,01; 6,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,14; 7,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,16; 8,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,99; 6,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,38; 4,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,81; 6,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,96; 6,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,59; 5,86</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,94; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,52; 5,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,52; 5,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,81; 4,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,67; 6,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,49; 7,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,68; 6,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,2; 11,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,21; 4,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,88; 5,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,49; 5,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,07; 7,44</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,89; 2,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,78; 4,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,57; 3,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,75; 4,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,32; 4,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,72; 6,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,62; 6,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,32; 6,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,73; 3,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,99; 5,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,77; 4,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,77; 5,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,16</t>
+          <t>0,98; 2,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,04</t>
+          <t>1,25; 3,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>1,59; 4,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 10,67</t>
+          <t>2,1; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>1,28; 3,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,24</t>
+          <t>3,03; 6,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,07</t>
+          <t>2,41; 5,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 11,34</t>
+          <t>3,11; 6,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,36</t>
+          <t>1,34; 2,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,65</t>
+          <t>2,47; 4,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,08</t>
+          <t>2,28; 4,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,78</t>
+          <t>2,85; 5,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,84</t>
+          <t>1,49; 3,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,45</t>
+          <t>2,55; 4,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,84</t>
+          <t>1,89; 4,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,29</t>
+          <t>1,29; 4,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,21</t>
+          <t>2,53; 5,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,24</t>
+          <t>4,41; 7,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,92</t>
+          <t>4,54; 7,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,91</t>
+          <t>2,68; 4,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,87</t>
+          <t>2,31; 3,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,25</t>
+          <t>3,68; 5,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,91</t>
+          <t>3,48; 5,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,0</t>
+          <t>2,0; 4,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,69</t>
+          <t>1,27; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,9</t>
+          <t>2,63; 5,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,14</t>
+          <t>2,07; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,5</t>
+          <t>3,05; 6,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,12</t>
+          <t>3,01; 6,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,47</t>
+          <t>4,14; 7,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,53</t>
+          <t>5,16; 8,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,04</t>
+          <t>1,89; 5,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,96</t>
+          <t>2,38; 4,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,67</t>
+          <t>3,81; 6,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,33</t>
+          <t>3,96; 6,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,32</t>
+          <t>2,75; 5,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,74</t>
+          <t>1,94; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,98</t>
+          <t>2,52; 5,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,68</t>
+          <t>2,52; 5,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,57</t>
+          <t>1,82; 4,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,1</t>
+          <t>3,67; 6,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,5</t>
+          <t>4,49; 7,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,86</t>
+          <t>3,68; 6,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,3</t>
+          <t>5,25; 33,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,34</t>
+          <t>3,21; 4,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,17</t>
+          <t>3,88; 5,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,18</t>
+          <t>3,49; 5,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,86</t>
+          <t>4,11; 19,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,38</t>
+          <t>1,89; 2,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,1</t>
+          <t>2,78; 4,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,16</t>
+          <t>2,57; 3,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,34</t>
+          <t>2,47; 4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,55</t>
+          <t>3,32; 4,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,45</t>
+          <t>4,72; 6,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,56</t>
+          <t>4,62; 6,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,23</t>
+          <t>4,21; 14,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 4,98</t>
+          <t>2,73; 3,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,84</t>
+          <t>3,99; 5,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,49</t>
+          <t>3,77; 4,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,44</t>
+          <t>3,66; 9,42</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 4,09</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 3,68</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 4,19</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 4,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 6,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 6,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 6,65</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 3,58</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 5,0</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 4,72</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 5,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,83</t>
+          <t>0,95; 3,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,36</t>
+          <t>1,28; 3,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,03</t>
+          <t>1,66; 4,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,61</t>
+          <t>1,81; 5,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,48</t>
+          <t>1,25; 3,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,15</t>
+          <t>3,04; 6,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,43</t>
+          <t>2,26; 5,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,0</t>
+          <t>3,01; 6,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,72</t>
+          <t>1,3; 2,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,32</t>
+          <t>2,43; 4,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,18</t>
+          <t>2,24; 4,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,11</t>
+          <t>2,88; 4,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,69</t>
+          <t>1,53; 3,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,9</t>
+          <t>2,41; 5,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,14</t>
+          <t>1,86; 3,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,33</t>
+          <t>1,34; 4,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,12</t>
+          <t>2,55; 5,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,47</t>
+          <t>4,47; 7,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,53</t>
+          <t>4,45; 7,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,94</t>
+          <t>2,73; 5,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,96</t>
+          <t>2,33; 3,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,67</t>
+          <t>3,73; 5,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,33</t>
+          <t>3,41; 5,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,15</t>
+          <t>2,07; 4,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,74</t>
+          <t>1,22; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,98</t>
+          <t>2,67; 6,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,68</t>
+          <t>1,93; 4,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,64</t>
+          <t>3,07; 6,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,1</t>
+          <t>3,0; 6,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,5</t>
+          <t>4,13; 7,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,86</t>
+          <t>5,25; 8,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,72</t>
+          <t>2,04; 5,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,34</t>
+          <t>2,43; 4,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,17</t>
+          <t>3,74; 6,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,18</t>
+          <t>3,91; 6,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,47</t>
+          <t>2,75; 5,39</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,38</t>
+          <t>2,0; 4,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,1</t>
+          <t>2,47; 4,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,16</t>
+          <t>2,56; 4,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,65</t>
+          <t>1,93; 4,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,55</t>
+          <t>3,64; 6,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,45</t>
+          <t>4,48; 7,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,56</t>
+          <t>3,66; 6,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 33,3</t>
+          <t>5,15; 28,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 4,98</t>
+          <t>3,24; 5,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,84</t>
+          <t>3,83; 5,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,49</t>
+          <t>3,49; 5,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 19,97</t>
+          <t>4,09; 20,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,97</t>
+          <t>1,88; 3,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,09</t>
+          <t>2,84; 4,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,68</t>
+          <t>2,51; 3,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,13</t>
+          <t>2,44; 4,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,64</t>
+          <t>3,28; 4,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,31</t>
+          <t>4,78; 6,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,26</t>
+          <t>4,62; 6,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,16</t>
+          <t>4,18; 12,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,58</t>
+          <t>2,71; 3,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,0</t>
+          <t>3,95; 5,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 4,72</t>
+          <t>3,74; 4,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,42</t>
+          <t>3,67; 8,79</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11972</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14925</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18316</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14896</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31170</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24185</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29226</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26868</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46095</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>42501</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50216</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6601; 21008</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8950; 24997</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11203; 28296</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11491; 32017</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8637; 22966</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21106; 43444</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15201; 36821</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20342; 41266</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17928; 39387</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33857; 60756</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30216; 57175</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37708; 65094</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23350</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36587</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28776</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32277</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35963</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>59206</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61176</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34939</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59313</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95793</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>89952</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>67216</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14725; 36091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24547; 50989</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19039; 40327</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15983; 53307</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24649; 49722</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45849; 74832</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46440; 78508</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26191; 47886</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44987; 75788</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76216; 116226</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70360; 109848</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>44566; 87919</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14755</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30816</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23111</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31828</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29541</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44092</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53974</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38088</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44296</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74908</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>77085</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69917</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8275; 24848</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20197; 47327</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14659; 35395</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21615; 47612</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20535; 42412</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32079; 61903</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41226; 70162</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19019; 52964</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33158; 62066</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57395; 93712</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>60396; 94017</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>44996; 88193</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28137</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34282</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34033</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27584</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>51876</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>60738</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51126</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>127428</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>80013</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>95020</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>85160</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>155012</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18876; 41792</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23321; 46570</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23956; 45863</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17858; 41998</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37782; 66856</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46999; 77595</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38201; 67554</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>56246; 305673</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64220; 101353</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>76242; 115234</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69076; 105460</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82540; 408562</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>78213</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>116610</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>104236</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>112679</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>132277</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>195206</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>190462</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>229682</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>210489</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>311815</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>294698</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>342361</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>61545; 98468</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97114; 140864</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>85287; 125454</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>84475; 143314</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>110742; 154949</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>169425; 224957</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>163880; 219774</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>152869; 463207</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>180513; 242450</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>274781; 349313</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>259786; 330773</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>261143; 625379</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>